--- a/biology/Biologie cellulaire et moléculaire/Nectine_4/Nectine_4.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nectine_4/Nectine_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nectine 4 est une protéine dont le gène est NECTIN4 situé sur le chromosome 1 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il permet la fixation du virus de la rougeole[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet la fixation du virus de la rougeole.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène donne un syndrome association syndactylie, alopécie et anomalies dentaires[2].
-Il est exprimé dans certains cancers et semble favoriser la prolifération et les métastases[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène donne un syndrome association syndactylie, alopécie et anomalies dentaires.
+Il est exprimé dans certains cancers et semble favoriser la prolifération et les métastases.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enfortumab est un anticorps monoclonal dirigé contre la nectine 4. Il est couplé à la védotine, un anti mitotique, lui permettant d'agir directement sur les cellules porteuses de cette protéine. Cette combinaison est active dans le carcinome urothélial avancé ou métastatique[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enfortumab est un anticorps monoclonal dirigé contre la nectine 4. Il est couplé à la védotine, un anti mitotique, lui permettant d'agir directement sur les cellules porteuses de cette protéine. Cette combinaison est active dans le carcinome urothélial avancé ou métastatique.
 </t>
         </is>
       </c>
